--- a/words_5_chars.xlsx
+++ b/words_5_chars.xlsx
@@ -1,37 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ACBB81-FC1E-403B-9562-BF52751C88B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-22584" yWindow="456" windowWidth="20736" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>単語</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>こうせいか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +76,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,32 +400,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>単語</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>意味</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/words_5_chars.xlsx
+++ b/words_5_chars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ACBB81-FC1E-403B-9562-BF52751C88B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A77558-2447-49DB-AFD5-F7C85A6EFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22584" yWindow="456" windowWidth="20736" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/words_5_chars.xlsx
+++ b/words_5_chars.xlsx
@@ -5,22 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7024d8b65f2563e3/デスクトップ/雑魚/言葉データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A77558-2447-49DB-AFD5-F7C85A6EFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{39A77558-2447-49DB-AFD5-F7C85A6EFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D38D67-226A-48BA-8EB4-1F69F63C73A2}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$27</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>単語</t>
   </si>
@@ -28,15 +44,153 @@
     <t>意味</t>
   </si>
   <si>
-    <t>こうせいか</t>
-    <phoneticPr fontId="2"/>
+    <t>ありがとう</t>
+  </si>
+  <si>
+    <t>ふるいけし</t>
+  </si>
+  <si>
+    <t>古い消し</t>
+  </si>
+  <si>
+    <t>ほしみつび</t>
+  </si>
+  <si>
+    <t>星見月</t>
+  </si>
+  <si>
+    <t>まいにちか</t>
+  </si>
+  <si>
+    <t>毎日彼女</t>
+  </si>
+  <si>
+    <t>まったくも</t>
+  </si>
+  <si>
+    <t>全く無い</t>
+  </si>
+  <si>
+    <t>むりやりな</t>
+  </si>
+  <si>
+    <t>無理やり</t>
+  </si>
+  <si>
+    <t>面倒な事</t>
+  </si>
+  <si>
+    <t>もえきるま</t>
+  </si>
+  <si>
+    <t>燃え尽きる</t>
+  </si>
+  <si>
+    <t>やきざかな</t>
+  </si>
+  <si>
+    <t>焼き魚</t>
+  </si>
+  <si>
+    <t>らんまるひ</t>
+  </si>
+  <si>
+    <t>蘭丸一行</t>
+  </si>
+  <si>
+    <t>りょうかい</t>
+  </si>
+  <si>
+    <t>了解</t>
+  </si>
+  <si>
+    <t>れんあいせ</t>
+  </si>
+  <si>
+    <t>恋愛的</t>
+  </si>
+  <si>
+    <t>ろうどくか</t>
+  </si>
+  <si>
+    <t>朗読会</t>
+  </si>
+  <si>
+    <t>わたしたち</t>
+  </si>
+  <si>
+    <t>私達</t>
+  </si>
+  <si>
+    <t>めんどうな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あまのがわ</t>
+  </si>
+  <si>
+    <t>天の川</t>
+  </si>
+  <si>
+    <t>おおきなき</t>
+  </si>
+  <si>
+    <t>大きな木</t>
+  </si>
+  <si>
+    <t>かたぐるま</t>
+  </si>
+  <si>
+    <t>肩車</t>
+  </si>
+  <si>
+    <t>きょうだい</t>
+  </si>
+  <si>
+    <t>兄弟</t>
+  </si>
+  <si>
+    <t>すいとうき</t>
+  </si>
+  <si>
+    <t>水筒機</t>
+  </si>
+  <si>
+    <t>せんたっき</t>
+  </si>
+  <si>
+    <t>洗濯機</t>
+  </si>
+  <si>
+    <t>ともだちや</t>
+  </si>
+  <si>
+    <t>友達屋</t>
+  </si>
+  <si>
+    <t>ねむりぐさ</t>
+  </si>
+  <si>
+    <t>眠り草</t>
+  </si>
+  <si>
+    <t>はなみずき</t>
+  </si>
+  <si>
+    <t>花水木</t>
+  </si>
+  <si>
+    <t>やまのぼり</t>
+  </si>
+  <si>
+    <t>山登り</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,18 +199,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,10 +261,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,32 +582,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>A2&amp;B2</f>
+        <v>あまのがわ天の川</v>
+      </c>
+      <c r="D2" s="7">
+        <f>LEN(A2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>A3&amp;B3</f>
+        <v>ありがとうありがとう</v>
+      </c>
+      <c r="D3" s="7">
+        <f>LEN(A3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f>A4&amp;B4</f>
+        <v>おおきなき大きな木</v>
+      </c>
+      <c r="D4" s="7">
+        <f>LEN(A4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>A5&amp;B5</f>
+        <v>かたぐるま肩車</v>
+      </c>
+      <c r="D5" s="7">
+        <f>LEN(A5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>A6&amp;B6</f>
+        <v>きょうだい兄弟</v>
+      </c>
+      <c r="D6" s="7">
+        <f>LEN(A6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>A7&amp;B7</f>
+        <v>すいとうき水筒機</v>
+      </c>
+      <c r="D7" s="7">
+        <f>LEN(A7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>A8&amp;B8</f>
+        <v>せんたっき洗濯機</v>
+      </c>
+      <c r="D8" s="7">
+        <f>LEN(A8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>A9&amp;B9</f>
+        <v>ともだちや友達屋</v>
+      </c>
+      <c r="D9" s="7">
+        <f>LEN(A9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>A10&amp;B10</f>
+        <v>ねむりぐさ眠り草</v>
+      </c>
+      <c r="D10" s="7">
+        <f>LEN(A10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>A11&amp;B11</f>
+        <v>はなみずき花水木</v>
+      </c>
+      <c r="D11" s="7">
+        <f>LEN(A11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>A12&amp;B12</f>
+        <v>ふるいけし古い消し</v>
+      </c>
+      <c r="D12" s="7">
+        <f>LEN(A12)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>A13&amp;B13</f>
+        <v>ほしみつび星見月</v>
+      </c>
+      <c r="D13" s="7">
+        <f>LEN(A13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f>A14&amp;B14</f>
+        <v>まいにちか毎日彼女</v>
+      </c>
+      <c r="D14" s="7">
+        <f>LEN(A14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f>A15&amp;B15</f>
+        <v>まったくも全く無い</v>
+      </c>
+      <c r="D15" s="7">
+        <f>LEN(A15)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f>A16&amp;B16</f>
+        <v>むりやりな無理やり</v>
+      </c>
+      <c r="D16" s="7">
+        <f>LEN(A16)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f>A17&amp;B17</f>
+        <v>めんどうな面倒な事</v>
+      </c>
+      <c r="D17" s="7">
+        <f>LEN(A17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f>A18&amp;B18</f>
+        <v>もえきるま燃え尽きる</v>
+      </c>
+      <c r="D18" s="7">
+        <f>LEN(A18)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f>A19&amp;B19</f>
+        <v>やきざかな焼き魚</v>
+      </c>
+      <c r="D19" s="7">
+        <f>LEN(A19)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f>A20&amp;B20</f>
+        <v>やまのぼり山登り</v>
+      </c>
+      <c r="D20" s="7">
+        <f>LEN(A20)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f>A21&amp;B21</f>
+        <v>らんまるひ蘭丸一行</v>
+      </c>
+      <c r="D21" s="7">
+        <f>LEN(A21)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f>A22&amp;B22</f>
+        <v>りょうかい了解</v>
+      </c>
+      <c r="D22" s="7">
+        <f>LEN(A22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f>A23&amp;B23</f>
+        <v>れんあいせ恋愛的</v>
+      </c>
+      <c r="D23" s="7">
+        <f>LEN(A23)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f>A24&amp;B24</f>
+        <v>ろうどくか朗読会</v>
+      </c>
+      <c r="D24" s="7">
+        <f>LEN(A24)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f>A25&amp;B25</f>
+        <v>わたしたち私達</v>
+      </c>
+      <c r="D25" s="7">
+        <f>LEN(A25)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <autoFilter ref="A1:D27" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
+      <sortCondition descending="1" ref="D2:D27"/>
+      <sortCondition ref="A2:A27"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>